--- a/1.Data/点位描述.xlsx
+++ b/1.Data/点位描述.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDir\圣遗物狗粮\1.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971B3C8C-A7B8-437C-8E31-EF2ADD5BBEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F86227D-E094-4D8F-80F8-0643DF30491E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{F66EB914-AF29-4F32-8050-272A701BC346}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="lootrate_tbl" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">调查点描述!$A$1:$F$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">调查点描述!$A$1:$F$163</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="561">
   <si>
     <t>墟散人离副本南方的废墟下层</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2386,10 +2386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E89F3A-A425-4D4D-AD97-96D901039CC5}">
-  <dimension ref="A1:H264"/>
+  <dimension ref="A1:H262"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6316,30 +6316,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>395</v>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>297</v>
+      </c>
+      <c r="B146" t="s">
+        <v>305</v>
+      </c>
+      <c r="C146" t="s">
+        <v>335</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>24</v>
+      </c>
+      <c r="F146" cm="1">
+        <f t="array" ref="F146">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G146&amp;调查点描述!H146,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
+        <v>1.35</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -6347,26 +6348,26 @@
         <v>297</v>
       </c>
       <c r="B147" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="C147" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D147">
         <v>1</v>
       </c>
       <c r="E147">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F147" cm="1">
         <f t="array" ref="F147">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G147&amp;调查点描述!H147,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="G147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -6374,26 +6375,26 @@
         <v>297</v>
       </c>
       <c r="B148" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="C148" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="D148">
         <v>1</v>
       </c>
       <c r="E148">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F148" cm="1">
         <f t="array" ref="F148">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G148&amp;调查点描述!H148,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -6401,16 +6402,16 @@
         <v>297</v>
       </c>
       <c r="B149" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C149" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D149">
         <v>1</v>
       </c>
       <c r="E149">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F149" cm="1">
         <f t="array" ref="F149">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G149&amp;调查点描述!H149,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
@@ -6428,10 +6429,10 @@
         <v>297</v>
       </c>
       <c r="B150" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C150" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -6455,10 +6456,10 @@
         <v>297</v>
       </c>
       <c r="B151" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C151" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -6479,55 +6480,56 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="B152" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C152" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E152">
         <v>12</v>
       </c>
       <c r="F152" cm="1">
         <f t="array" ref="F152">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G152&amp;调查点描述!H152,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>395</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>313</v>
+      </c>
+      <c r="B153" t="s">
+        <v>338</v>
+      </c>
+      <c r="C153" t="s">
+        <v>339</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>24</v>
+      </c>
+      <c r="F153" cm="1">
+        <f t="array" ref="F153">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G153&amp;调查点描述!H153,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
+        <v>1.35</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -6535,16 +6537,16 @@
         <v>313</v>
       </c>
       <c r="B154" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="C154" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E154">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F154" cm="1">
         <f t="array" ref="F154">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G154&amp;调查点描述!H154,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
@@ -6562,26 +6564,26 @@
         <v>313</v>
       </c>
       <c r="B155" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="C155" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E155">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F155" cm="1">
         <f t="array" ref="F155">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G155&amp;调查点描述!H155,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.35</v>
+        <v>1.425</v>
       </c>
       <c r="G155">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -6589,16 +6591,16 @@
         <v>313</v>
       </c>
       <c r="B156" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C156" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="D156">
         <v>1</v>
       </c>
       <c r="E156">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F156" cm="1">
         <f t="array" ref="F156">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G156&amp;调查点描述!H156,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
@@ -6616,37 +6618,37 @@
         <v>313</v>
       </c>
       <c r="B157" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C157" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E157">
         <v>12</v>
       </c>
       <c r="F157" cm="1">
         <f t="array" ref="F157">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G157&amp;调查点描述!H157,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.425</v>
+        <v>1.35</v>
       </c>
       <c r="G157">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B158" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C158" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -6656,24 +6658,24 @@
       </c>
       <c r="F158" cm="1">
         <f t="array" ref="F158">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G158&amp;调查点描述!H158,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="G158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="B159" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C159" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -6694,40 +6696,40 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B160" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C160" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="D160">
         <v>1</v>
       </c>
       <c r="E160">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F160" cm="1">
         <f t="array" ref="F160">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G160&amp;调查点描述!H160,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="G160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B161" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C161" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -6737,40 +6739,40 @@
       </c>
       <c r="F161" cm="1">
         <f t="array" ref="F161">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G161&amp;调查点描述!H161,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B162" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="C162" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="D162">
-        <v>1</v>
-      </c>
-      <c r="E162">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="E162" t="s">
+        <v>520</v>
       </c>
       <c r="F162" cm="1">
         <f t="array" ref="F162">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G162&amp;调查点描述!H162,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="G162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
@@ -6778,43 +6780,44 @@
         <v>323</v>
       </c>
       <c r="B163" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C163" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D163">
         <v>1</v>
       </c>
-      <c r="E163">
-        <v>12</v>
+      <c r="E163" t="s">
+        <v>520</v>
       </c>
       <c r="F163" cm="1">
         <f t="array" ref="F163">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G163&amp;调查点描述!H163,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="G163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>323</v>
+        <v>449</v>
       </c>
       <c r="B164" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C164" t="s">
-        <v>333</v>
+        <v>399</v>
       </c>
       <c r="D164">
-        <v>3</v>
-      </c>
-      <c r="E164" t="s">
-        <v>520</v>
+        <f t="shared" ref="D164:D232" si="0">G164+H164</f>
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>24</v>
       </c>
       <c r="F164" cm="1">
         <f t="array" ref="F164">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G164&amp;调查点描述!H164,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
@@ -6829,29 +6832,30 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>323</v>
+        <v>449</v>
       </c>
       <c r="B165" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="C165" t="s">
-        <v>290</v>
+        <v>447</v>
       </c>
       <c r="D165">
-        <v>1</v>
-      </c>
-      <c r="E165" t="s">
-        <v>520</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>24</v>
       </c>
       <c r="F165" cm="1">
         <f t="array" ref="F165">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G165&amp;调查点描述!H165,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="G165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
@@ -6859,13 +6863,13 @@
         <v>449</v>
       </c>
       <c r="B166" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C166" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D166">
-        <f t="shared" ref="D166:D234" si="0">G166+H166</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E166">
@@ -6873,24 +6877,24 @@
       </c>
       <c r="F166" cm="1">
         <f t="array" ref="F166">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G166&amp;调查点描述!H166,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="G166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B167" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C167" t="s">
-        <v>447</v>
+        <v>400</v>
       </c>
       <c r="D167">
         <f t="shared" si="0"/>
@@ -6912,13 +6916,13 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B168" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C168" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D168">
         <f t="shared" si="0"/>
@@ -6943,10 +6947,10 @@
         <v>450</v>
       </c>
       <c r="B169" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C169" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="D169">
         <f t="shared" si="0"/>
@@ -6971,10 +6975,10 @@
         <v>450</v>
       </c>
       <c r="B170" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C170" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D170">
         <f t="shared" si="0"/>
@@ -6999,10 +7003,10 @@
         <v>450</v>
       </c>
       <c r="B171" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C171" t="s">
-        <v>448</v>
+        <v>403</v>
       </c>
       <c r="D171">
         <f t="shared" si="0"/>
@@ -7024,20 +7028,20 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B172" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C172" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D172">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E172">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F172" cm="1">
         <f t="array" ref="F172">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G172&amp;调查点描述!H172,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
@@ -7052,20 +7056,20 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B173" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C173" t="s">
-        <v>403</v>
+        <v>434</v>
       </c>
       <c r="D173">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E173">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F173" cm="1">
         <f t="array" ref="F173">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G173&amp;调查点描述!H173,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
@@ -7075,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
@@ -7083,10 +7087,10 @@
         <v>451</v>
       </c>
       <c r="B174" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C174" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D174">
         <f t="shared" si="0"/>
@@ -7111,27 +7115,27 @@
         <v>451</v>
       </c>
       <c r="B175" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C175" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="D175">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E175">
         <v>12</v>
       </c>
       <c r="F175" cm="1">
         <f t="array" ref="F175">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G175&amp;调查点描述!H175,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="G175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
@@ -7139,27 +7143,27 @@
         <v>451</v>
       </c>
       <c r="B176" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C176" t="s">
-        <v>405</v>
+        <v>517</v>
       </c>
       <c r="D176">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E176">
         <v>12</v>
       </c>
       <c r="F176" cm="1">
         <f t="array" ref="F176">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G176&amp;调查点描述!H176,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -7167,27 +7171,27 @@
         <v>451</v>
       </c>
       <c r="B177" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C177" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="D177">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E177">
         <v>12</v>
       </c>
       <c r="F177" cm="1">
         <f t="array" ref="F177">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G177&amp;调查点描述!H177,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.35</v>
+        <v>1.425</v>
       </c>
       <c r="G177">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
@@ -7195,14 +7199,14 @@
         <v>451</v>
       </c>
       <c r="B178" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C178" t="s">
-        <v>517</v>
+        <v>412</v>
       </c>
       <c r="D178">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E178">
         <v>12</v>
@@ -7212,7 +7216,7 @@
         <v>1.35</v>
       </c>
       <c r="G178">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -7223,100 +7227,100 @@
         <v>451</v>
       </c>
       <c r="B179" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C179" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="D179">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E179">
         <v>12</v>
       </c>
       <c r="F179" cm="1">
         <f t="array" ref="F179">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G179&amp;调查点描述!H179,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.425</v>
+        <v>1.35</v>
       </c>
       <c r="G179">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="B180" t="s">
-        <v>358</v>
+        <v>483</v>
       </c>
       <c r="C180" t="s">
-        <v>412</v>
+        <v>484</v>
       </c>
       <c r="D180">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E180">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F180" cm="1">
         <f t="array" ref="F180">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G180&amp;调查点描述!H180,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="G180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="B181" t="s">
-        <v>359</v>
+        <v>514</v>
       </c>
       <c r="C181" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="D181">
-        <f t="shared" si="0"/>
+        <f>G181+H181</f>
         <v>1</v>
       </c>
       <c r="E181">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F181" cm="1">
         <f t="array" ref="F181">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G181&amp;调查点描述!H181,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="B182" t="s">
-        <v>483</v>
+        <v>362</v>
       </c>
       <c r="C182" t="s">
-        <v>484</v>
+        <v>435</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <f>G182+H182</f>
+        <v>3</v>
       </c>
       <c r="E182">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F182" cm="1">
         <f t="array" ref="F182">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G182&amp;调查点描述!H182,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
@@ -7326,18 +7330,18 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="B183" t="s">
-        <v>514</v>
+        <v>361</v>
       </c>
       <c r="C183" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D183">
         <f>G183+H183</f>
@@ -7359,44 +7363,44 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B184" t="s">
-        <v>362</v>
+        <v>518</v>
       </c>
       <c r="C184" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="D184">
         <f>G184+H184</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E184">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F184" cm="1">
         <f t="array" ref="F184">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G184&amp;调查点描述!H184,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="G184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B185" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C185" t="s">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="D185">
-        <f>G185+H185</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E185">
@@ -7404,27 +7408,27 @@
       </c>
       <c r="F185" cm="1">
         <f t="array" ref="F185">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G185&amp;调查点描述!H185,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="G185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B186" t="s">
-        <v>518</v>
+        <v>485</v>
       </c>
       <c r="C186" t="s">
-        <v>406</v>
+        <v>526</v>
       </c>
       <c r="D186">
-        <f>G186+H186</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E186">
@@ -7432,24 +7436,24 @@
       </c>
       <c r="F186" cm="1">
         <f t="array" ref="F186">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G186&amp;调查点描述!H186,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B187" t="s">
-        <v>360</v>
+        <v>486</v>
       </c>
       <c r="C187" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D187">
         <f t="shared" si="0"/>
@@ -7474,10 +7478,10 @@
         <v>455</v>
       </c>
       <c r="B188" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C188" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D188">
         <f t="shared" si="0"/>
@@ -7488,13 +7492,13 @@
       </c>
       <c r="F188" cm="1">
         <f t="array" ref="F188">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G188&amp;调查点描述!H188,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="G188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -7502,13 +7506,13 @@
         <v>455</v>
       </c>
       <c r="B189" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C189" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D189">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D189" si="1">G189+H189</f>
         <v>1</v>
       </c>
       <c r="E189">
@@ -7530,13 +7534,13 @@
         <v>455</v>
       </c>
       <c r="B190" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C190" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D190">
-        <f t="shared" si="0"/>
+        <f>G190+H190</f>
         <v>1</v>
       </c>
       <c r="E190">
@@ -7558,13 +7562,13 @@
         <v>455</v>
       </c>
       <c r="B191" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C191" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D191">
-        <f t="shared" ref="D191" si="1">G191+H191</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E191">
@@ -7586,10 +7590,10 @@
         <v>455</v>
       </c>
       <c r="B192" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C192" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D192">
         <f>G192+H192</f>
@@ -7614,10 +7618,10 @@
         <v>455</v>
       </c>
       <c r="B193" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C193" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D193">
         <f t="shared" si="0"/>
@@ -7642,13 +7646,13 @@
         <v>455</v>
       </c>
       <c r="B194" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C194" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D194">
-        <f>G194+H194</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E194">
@@ -7670,10 +7674,10 @@
         <v>455</v>
       </c>
       <c r="B195" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C195" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D195">
         <f t="shared" si="0"/>
@@ -7698,10 +7702,10 @@
         <v>455</v>
       </c>
       <c r="B196" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C196" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D196">
         <f t="shared" si="0"/>
@@ -7726,10 +7730,10 @@
         <v>455</v>
       </c>
       <c r="B197" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C197" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D197">
         <f t="shared" si="0"/>
@@ -7754,10 +7758,10 @@
         <v>455</v>
       </c>
       <c r="B198" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C198" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D198">
         <f t="shared" si="0"/>
@@ -7782,10 +7786,10 @@
         <v>455</v>
       </c>
       <c r="B199" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C199" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D199">
         <f t="shared" si="0"/>
@@ -7810,10 +7814,10 @@
         <v>455</v>
       </c>
       <c r="B200" t="s">
-        <v>497</v>
+        <v>554</v>
       </c>
       <c r="C200" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D200">
         <f t="shared" si="0"/>
@@ -7838,13 +7842,13 @@
         <v>455</v>
       </c>
       <c r="B201" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="C201" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="D201">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D201" si="2">G201+H201</f>
         <v>1</v>
       </c>
       <c r="E201">
@@ -7866,13 +7870,13 @@
         <v>455</v>
       </c>
       <c r="B202" t="s">
-        <v>554</v>
+        <v>500</v>
       </c>
       <c r="C202" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D202">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D202" si="3">G202+H202</f>
         <v>1</v>
       </c>
       <c r="E202">
@@ -7894,13 +7898,13 @@
         <v>455</v>
       </c>
       <c r="B203" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="C203" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="D203">
-        <f t="shared" ref="D203" si="2">G203+H203</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E203">
@@ -7919,20 +7923,20 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B204" t="s">
-        <v>500</v>
+        <v>371</v>
       </c>
       <c r="C204" t="s">
-        <v>541</v>
+        <v>501</v>
       </c>
       <c r="D204">
-        <f t="shared" ref="D204" si="3">G204+H204</f>
+        <f t="shared" ref="D204" si="4">G204+H204</f>
         <v>1</v>
       </c>
       <c r="E204">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F204" cm="1">
         <f t="array" ref="F204">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G204&amp;调查点描述!H204,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
@@ -7947,20 +7951,20 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B205" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="C205" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="D205">
-        <f t="shared" si="0"/>
+        <f>G205+H205</f>
         <v>1</v>
       </c>
       <c r="E205">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F205" cm="1">
         <f t="array" ref="F205">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G205&amp;调查点描述!H205,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
@@ -7978,13 +7982,13 @@
         <v>456</v>
       </c>
       <c r="B206" t="s">
-        <v>371</v>
+        <v>522</v>
       </c>
       <c r="C206" t="s">
-        <v>501</v>
+        <v>468</v>
       </c>
       <c r="D206">
-        <f t="shared" ref="D206" si="4">G206+H206</f>
+        <f>G206+H206</f>
         <v>1</v>
       </c>
       <c r="E206">
@@ -8006,13 +8010,12 @@
         <v>456</v>
       </c>
       <c r="B207" t="s">
-        <v>523</v>
+        <v>363</v>
       </c>
       <c r="C207" t="s">
-        <v>524</v>
+        <v>436</v>
       </c>
       <c r="D207">
-        <f>G207+H207</f>
         <v>1</v>
       </c>
       <c r="E207">
@@ -8023,7 +8026,7 @@
         <v>1.35</v>
       </c>
       <c r="G207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -8034,17 +8037,17 @@
         <v>456</v>
       </c>
       <c r="B208" t="s">
-        <v>522</v>
+        <v>364</v>
       </c>
       <c r="C208" t="s">
-        <v>468</v>
+        <v>413</v>
       </c>
       <c r="D208">
-        <f>G208+H208</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E208">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F208" cm="1">
         <f t="array" ref="F208">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G208&amp;调查点描述!H208,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
@@ -8062,23 +8065,24 @@
         <v>456</v>
       </c>
       <c r="B209" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C209" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D209">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E209">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F209" cm="1">
         <f t="array" ref="F209">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G209&amp;调查点描述!H209,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
         <v>1.35</v>
       </c>
       <c r="G209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -8089,10 +8093,10 @@
         <v>456</v>
       </c>
       <c r="B210" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C210" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D210">
         <f t="shared" si="0"/>
@@ -8117,24 +8121,24 @@
         <v>456</v>
       </c>
       <c r="B211" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C211" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D211">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E211">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F211" cm="1">
         <f t="array" ref="F211">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G211&amp;调查点描述!H211,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
         <v>1.35</v>
       </c>
       <c r="G211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -8145,13 +8149,12 @@
         <v>456</v>
       </c>
       <c r="B212" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C212" t="s">
-        <v>414</v>
+        <v>558</v>
       </c>
       <c r="D212">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E212">
@@ -8173,14 +8176,13 @@
         <v>456</v>
       </c>
       <c r="B213" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C213" t="s">
-        <v>437</v>
+        <v>559</v>
       </c>
       <c r="D213">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E213">
         <v>12</v>
@@ -8190,7 +8192,7 @@
         <v>1.35</v>
       </c>
       <c r="G213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -8201,26 +8203,27 @@
         <v>456</v>
       </c>
       <c r="B214" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C214" t="s">
-        <v>558</v>
+        <v>407</v>
       </c>
       <c r="D214">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E214">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F214" cm="1">
         <f t="array" ref="F214">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G214&amp;调查点描述!H214,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="G214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
@@ -8228,13 +8231,14 @@
         <v>456</v>
       </c>
       <c r="B215" t="s">
-        <v>369</v>
+        <v>560</v>
       </c>
       <c r="C215" t="s">
-        <v>559</v>
+        <v>467</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E215">
         <v>12</v>
@@ -8244,7 +8248,7 @@
         <v>1.35</v>
       </c>
       <c r="G215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -8255,13 +8259,12 @@
         <v>456</v>
       </c>
       <c r="B216" t="s">
-        <v>370</v>
+        <v>555</v>
       </c>
       <c r="C216" t="s">
-        <v>407</v>
+        <v>521</v>
       </c>
       <c r="D216">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E216">
@@ -8269,28 +8272,28 @@
       </c>
       <c r="F216" cm="1">
         <f t="array" ref="F216">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G216&amp;调查点描述!H216,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="G216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B217" t="s">
-        <v>560</v>
+        <v>442</v>
       </c>
       <c r="C217" t="s">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="D217">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E217">
         <v>12</v>
@@ -8300,7 +8303,7 @@
         <v>1.35</v>
       </c>
       <c r="G217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -8308,15 +8311,16 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B218" t="s">
-        <v>555</v>
+        <v>372</v>
       </c>
       <c r="C218" t="s">
-        <v>521</v>
+        <v>415</v>
       </c>
       <c r="D218">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E218">
@@ -8335,27 +8339,26 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B219" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="C219" t="s">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="D219">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E219">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="E219" t="s">
+        <v>520</v>
       </c>
       <c r="F219" cm="1">
         <f t="array" ref="F219">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G219&amp;调查点描述!H219,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
         <v>1.35</v>
       </c>
       <c r="G219">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -8363,54 +8366,55 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B220" t="s">
-        <v>372</v>
+        <v>502</v>
       </c>
       <c r="C220" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="D220">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E220">
         <v>12</v>
       </c>
       <c r="F220" cm="1">
         <f t="array" ref="F220">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G220&amp;调查点描述!H220,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="G220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B221" t="s">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="C221" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="D221">
-        <v>4</v>
-      </c>
-      <c r="E221" t="s">
-        <v>520</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E221">
+        <v>12</v>
       </c>
       <c r="F221" cm="1">
         <f t="array" ref="F221">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G221&amp;调查点描述!H221,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
         <v>1.35</v>
       </c>
       <c r="G221">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H221">
         <v>0</v>
@@ -8421,27 +8425,27 @@
         <v>459</v>
       </c>
       <c r="B222" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C222" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="D222">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E222">
         <v>12</v>
       </c>
       <c r="F222" cm="1">
         <f t="array" ref="F222">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G222&amp;调查点描述!H222,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="G222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
@@ -8449,10 +8453,10 @@
         <v>459</v>
       </c>
       <c r="B223" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C223" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="D223">
         <f t="shared" si="0"/>
@@ -8477,10 +8481,10 @@
         <v>459</v>
       </c>
       <c r="B224" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C224" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D224">
         <f t="shared" si="0"/>
@@ -8505,10 +8509,10 @@
         <v>459</v>
       </c>
       <c r="B225" t="s">
-        <v>505</v>
+        <v>443</v>
       </c>
       <c r="C225" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="D225">
         <f t="shared" si="0"/>
@@ -8533,10 +8537,10 @@
         <v>459</v>
       </c>
       <c r="B226" t="s">
-        <v>506</v>
-      </c>
-      <c r="C226" t="s">
-        <v>418</v>
+        <v>477</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>478</v>
       </c>
       <c r="D226">
         <f t="shared" si="0"/>
@@ -8561,10 +8565,10 @@
         <v>459</v>
       </c>
       <c r="B227" t="s">
-        <v>443</v>
+        <v>507</v>
       </c>
       <c r="C227" t="s">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="D227">
         <f t="shared" si="0"/>
@@ -8586,48 +8590,48 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B228" t="s">
-        <v>477</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>478</v>
+        <v>373</v>
+      </c>
+      <c r="C228" t="s">
+        <v>445</v>
       </c>
       <c r="D228">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E228">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F228" cm="1">
         <f t="array" ref="F228">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G228&amp;调查点描述!H228,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.35</v>
+        <v>1.425</v>
       </c>
       <c r="G228">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B229" t="s">
-        <v>507</v>
+        <v>374</v>
       </c>
       <c r="C229" t="s">
-        <v>479</v>
+        <v>419</v>
       </c>
       <c r="D229">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E229">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F229" cm="1">
         <f t="array" ref="F229">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G229&amp;调查点描述!H229,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
@@ -8645,27 +8649,27 @@
         <v>456</v>
       </c>
       <c r="B230" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C230" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="D230">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E230">
         <v>24</v>
       </c>
       <c r="F230" cm="1">
         <f t="array" ref="F230">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G230&amp;调查点描述!H230,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.425</v>
+        <v>1.35</v>
       </c>
       <c r="G230">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
@@ -8673,10 +8677,10 @@
         <v>456</v>
       </c>
       <c r="B231" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C231" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D231">
         <f t="shared" si="0"/>
@@ -8701,10 +8705,10 @@
         <v>456</v>
       </c>
       <c r="B232" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C232" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D232">
         <f t="shared" si="0"/>
@@ -8729,13 +8733,13 @@
         <v>456</v>
       </c>
       <c r="B233" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C233" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D233">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D233:D240" si="5">G233+H233</f>
         <v>1</v>
       </c>
       <c r="E233">
@@ -8757,13 +8761,13 @@
         <v>456</v>
       </c>
       <c r="B234" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C234" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D234">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E234">
@@ -8785,13 +8789,13 @@
         <v>456</v>
       </c>
       <c r="B235" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C235" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D235">
-        <f t="shared" ref="D235:D242" si="5">G235+H235</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E235">
@@ -8813,17 +8817,16 @@
         <v>456</v>
       </c>
       <c r="B236" t="s">
-        <v>379</v>
+        <v>552</v>
       </c>
       <c r="C236" t="s">
-        <v>424</v>
+        <v>553</v>
       </c>
       <c r="D236">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E236">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="E236" t="s">
+        <v>520</v>
       </c>
       <c r="F236" cm="1">
         <f t="array" ref="F236">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G236&amp;调查点描述!H236,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
@@ -8838,13 +8841,13 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B237" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C237" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="D237">
         <f t="shared" si="5"/>
@@ -8866,19 +8869,20 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B238" t="s">
-        <v>552</v>
+        <v>382</v>
       </c>
       <c r="C238" t="s">
-        <v>553</v>
+        <v>471</v>
       </c>
       <c r="D238">
-        <v>1</v>
-      </c>
-      <c r="E238" t="s">
-        <v>520</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E238">
+        <v>24</v>
       </c>
       <c r="F238" cm="1">
         <f t="array" ref="F238">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G238&amp;调查点描述!H238,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
@@ -8896,10 +8900,10 @@
         <v>459</v>
       </c>
       <c r="B239" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C239" t="s">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="D239">
         <f t="shared" si="5"/>
@@ -8924,14 +8928,14 @@
         <v>459</v>
       </c>
       <c r="B240" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="C240" t="s">
-        <v>471</v>
+        <v>544</v>
       </c>
       <c r="D240">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E240">
         <v>24</v>
@@ -8941,7 +8945,7 @@
         <v>1.35</v>
       </c>
       <c r="G240">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H240">
         <v>0</v>
@@ -8949,16 +8953,16 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B241" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C241" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D241">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D241:D242" si="6">G241+H241</f>
         <v>1</v>
       </c>
       <c r="E241">
@@ -8977,17 +8981,17 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B242" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="C242" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D242">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="E242">
         <v>24</v>
@@ -8997,7 +9001,7 @@
         <v>1.35</v>
       </c>
       <c r="G242">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -9008,13 +9012,13 @@
         <v>460</v>
       </c>
       <c r="B243" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C243" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D243">
-        <f t="shared" ref="D243:D244" si="6">G243+H243</f>
+        <f>G243+H243</f>
         <v>1</v>
       </c>
       <c r="E243">
@@ -9036,14 +9040,14 @@
         <v>460</v>
       </c>
       <c r="B244" t="s">
-        <v>385</v>
+        <v>469</v>
       </c>
       <c r="C244" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D244">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f>G244+H244</f>
+        <v>1</v>
       </c>
       <c r="E244">
         <v>24</v>
@@ -9053,7 +9057,7 @@
         <v>1.35</v>
       </c>
       <c r="G244">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H244">
         <v>0</v>
@@ -9064,10 +9068,10 @@
         <v>460</v>
       </c>
       <c r="B245" t="s">
-        <v>386</v>
+        <v>508</v>
       </c>
       <c r="C245" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D245">
         <f>G245+H245</f>
@@ -9089,16 +9093,16 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B246" t="s">
-        <v>469</v>
+        <v>387</v>
       </c>
       <c r="C246" t="s">
-        <v>548</v>
+        <v>426</v>
       </c>
       <c r="D246">
-        <f>G246+H246</f>
+        <f t="shared" ref="D246:D260" si="7">G246+H246</f>
         <v>1</v>
       </c>
       <c r="E246">
@@ -9117,16 +9121,16 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B247" t="s">
-        <v>508</v>
+        <v>388</v>
       </c>
       <c r="C247" t="s">
-        <v>548</v>
+        <v>481</v>
       </c>
       <c r="D247">
-        <f>G247+H247</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E247">
@@ -9148,14 +9152,14 @@
         <v>461</v>
       </c>
       <c r="B248" t="s">
-        <v>387</v>
+        <v>509</v>
       </c>
       <c r="C248" t="s">
-        <v>426</v>
+        <v>551</v>
       </c>
       <c r="D248">
-        <f t="shared" ref="D248:D262" si="7">G248+H248</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="E248">
         <v>24</v>
@@ -9165,7 +9169,7 @@
         <v>1.35</v>
       </c>
       <c r="G248">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H248">
         <v>0</v>
@@ -9173,20 +9177,20 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B249" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C249" t="s">
-        <v>481</v>
+        <v>427</v>
       </c>
       <c r="D249">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E249">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F249" cm="1">
         <f t="array" ref="F249">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G249&amp;调查点描述!H249,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
@@ -9201,30 +9205,30 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B250" t="s">
-        <v>509</v>
+        <v>390</v>
       </c>
       <c r="C250" t="s">
-        <v>551</v>
+        <v>408</v>
       </c>
       <c r="D250">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E250">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F250" cm="1">
         <f t="array" ref="F250">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G250&amp;调查点描述!H250,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="G250">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
@@ -9232,10 +9236,10 @@
         <v>462</v>
       </c>
       <c r="B251" t="s">
-        <v>389</v>
+        <v>510</v>
       </c>
       <c r="C251" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D251">
         <f t="shared" si="7"/>
@@ -9260,10 +9264,10 @@
         <v>462</v>
       </c>
       <c r="B252" t="s">
-        <v>390</v>
+        <v>511</v>
       </c>
       <c r="C252" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D252">
         <f t="shared" si="7"/>
@@ -9285,20 +9289,20 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B253" t="s">
-        <v>510</v>
+        <v>391</v>
       </c>
       <c r="C253" t="s">
-        <v>428</v>
+        <v>549</v>
       </c>
       <c r="D253">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E253">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F253" cm="1">
         <f t="array" ref="F253">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G253&amp;调查点描述!H253,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
@@ -9313,48 +9317,48 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B254" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C254" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
       <c r="D254">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E254">
         <v>12</v>
       </c>
       <c r="F254" cm="1">
         <f t="array" ref="F254">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G254&amp;调查点描述!H254,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="G254">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B255" t="s">
-        <v>391</v>
+        <v>516</v>
       </c>
       <c r="C255" t="s">
-        <v>549</v>
+        <v>429</v>
       </c>
       <c r="D255">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E255">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F255" cm="1">
         <f t="array" ref="F255">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G255&amp;调查点描述!H255,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
@@ -9372,24 +9376,24 @@
         <v>464</v>
       </c>
       <c r="B256" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C256" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D256">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="E256">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="E256" t="s">
+        <v>520</v>
       </c>
       <c r="F256" cm="1">
         <f t="array" ref="F256">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G256&amp;调查点描述!H256,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
         <v>1.35</v>
       </c>
       <c r="G256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H256">
         <v>0</v>
@@ -9397,27 +9401,27 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B257" t="s">
-        <v>516</v>
+        <v>392</v>
       </c>
       <c r="C257" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
       <c r="D257">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E257">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F257" cm="1">
         <f t="array" ref="F257">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G257&amp;调查点描述!H257,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
         <v>1.35</v>
       </c>
       <c r="G257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H257">
         <v>0</v>
@@ -9425,27 +9429,27 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B258" t="s">
-        <v>512</v>
+        <v>393</v>
       </c>
       <c r="C258" t="s">
-        <v>430</v>
+        <v>550</v>
       </c>
       <c r="D258">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="E258" t="s">
-        <v>520</v>
+        <v>2</v>
+      </c>
+      <c r="E258">
+        <v>24</v>
       </c>
       <c r="F258" cm="1">
         <f t="array" ref="F258">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G258&amp;调查点描述!H258,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
         <v>1.35</v>
       </c>
       <c r="G258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H258">
         <v>0</v>
@@ -9456,14 +9460,14 @@
         <v>465</v>
       </c>
       <c r="B259" t="s">
-        <v>392</v>
+        <v>513</v>
       </c>
       <c r="C259" t="s">
-        <v>473</v>
+        <v>557</v>
       </c>
       <c r="D259">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E259">
         <v>24</v>
@@ -9473,7 +9477,7 @@
         <v>1.35</v>
       </c>
       <c r="G259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -9484,14 +9488,14 @@
         <v>465</v>
       </c>
       <c r="B260" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C260" t="s">
-        <v>550</v>
+        <v>431</v>
       </c>
       <c r="D260">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E260">
         <v>24</v>
@@ -9501,104 +9505,21 @@
         <v>1.35</v>
       </c>
       <c r="G260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H260">
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>465</v>
-      </c>
-      <c r="B261" t="s">
-        <v>513</v>
-      </c>
-      <c r="C261" t="s">
-        <v>557</v>
-      </c>
-      <c r="D261">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="E261">
-        <v>24</v>
-      </c>
-      <c r="F261" cm="1">
-        <f t="array" ref="F261">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G261&amp;调查点描述!H261,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.35</v>
-      </c>
-      <c r="G261">
-        <v>1</v>
-      </c>
-      <c r="H261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>465</v>
-      </c>
-      <c r="B262" t="s">
-        <v>394</v>
-      </c>
-      <c r="C262" t="s">
-        <v>431</v>
-      </c>
-      <c r="D262">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="E262">
-        <v>24</v>
-      </c>
-      <c r="F262" cm="1">
-        <f t="array" ref="F262">INDEX(lootrate_tbl!$C$2:$C$98,MATCH(调查点描述!G262&amp;调查点描述!H262,lootrate_tbl!$A$2:$A$98&amp;lootrate_tbl!$B$2:$B$98,0))</f>
-        <v>1.35</v>
-      </c>
-      <c r="G262">
-        <v>1</v>
-      </c>
-      <c r="H262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
-      <c r="C264" s="1"/>
-      <c r="D264" s="1"/>
-      <c r="E264" s="1"/>
-      <c r="F264" s="1"/>
-      <c r="H264" s="1"/>
+    <row r="262" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="H262" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F165" xr:uid="{53E89F3A-A425-4D4D-AD97-96D901039CC5}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
